--- a/Assets/06.Table/MonthMission2.xlsx
+++ b/Assets/06.Table/MonthMission2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316649A8-7DC6-4400-8785-AD25532C094D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFC5785-E5C5-4953-A286-A78175606E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MonthMission2" sheetId="1" r:id="rId1"/>
@@ -536,7 +536,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -598,13 +598,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>9009</v>
+        <v>9033</v>
       </c>
       <c r="F2" s="1">
         <v>5</v>
       </c>
       <c r="G2" s="1">
-        <v>9009</v>
+        <v>9033</v>
       </c>
       <c r="H2" s="1">
         <v>5</v>
@@ -758,13 +758,13 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>9009</v>
+        <v>9033</v>
       </c>
       <c r="F7" s="1">
         <v>5</v>
       </c>
       <c r="G7" s="1">
-        <v>9009</v>
+        <v>9033</v>
       </c>
       <c r="H7" s="1">
         <v>5</v>
